--- a/Deidentified Aneurysm Genetics Study Database_20200601.xlsx
+++ b/Deidentified Aneurysm Genetics Study Database_20200601.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="451">
   <si>
     <t xml:space="preserve">Subject Number </t>
   </si>
@@ -1237,6 +1237,9 @@
   </si>
   <si>
     <t xml:space="preserve">Aneurysm_NumberPt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject_index</t>
   </si>
   <si>
     <t xml:space="preserve">anloc</t>
@@ -2239,7 +2242,7 @@
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.5"/>
@@ -2633,11 +2636,11 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q79" activeCellId="0" sqref="Q79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.65"/>
@@ -8664,28 +8667,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H101" activeCellId="0" sqref="H101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.73828125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="100.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="19.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="100.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8701,41 +8706,50 @@
       <c r="D1" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="O1" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R1" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
         <v>114</v>
       </c>
@@ -8748,34 +8762,46 @@
       <c r="D2" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G2, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F2" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G2, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G2" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B2)),0)</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="19" t="n">
+      <c r="J2" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="H2" s="19" t="n">
+      <c r="K2" s="19" t="n">
         <v>19</v>
       </c>
-      <c r="I2" s="16" t="n">
+      <c r="L2" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P2" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
         <v>123</v>
       </c>
@@ -8788,35 +8814,47 @@
       <c r="D3" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G3, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F3" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G3, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G3" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B3)),0)</f>
+        <v>3</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>6.4</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>5.9</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22" t="n">
+      <c r="L3" s="21"/>
+      <c r="M3" s="22" t="n">
         <v>44144</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="L3" s="19" t="s">
+      <c r="N3" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="O3" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P3" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
         <v>129</v>
       </c>
@@ -8829,37 +8867,49 @@
       <c r="D4" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G4, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F4" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G4, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G4" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B4)),0)</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="I4" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="16" t="n">
+      <c r="J4" s="16" t="n">
         <v>6.7</v>
       </c>
-      <c r="H4" s="16" t="n">
+      <c r="K4" s="16" t="n">
         <v>5.2</v>
       </c>
-      <c r="I4" s="16" t="n">
+      <c r="L4" s="16" t="n">
         <v>4.7</v>
       </c>
-      <c r="J4" s="22" t="n">
+      <c r="M4" s="22" t="n">
         <v>44132</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P4" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
         <v>132</v>
       </c>
@@ -8872,34 +8922,46 @@
       <c r="D5" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G5, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F5" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G5, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G5" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B5)),0)</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="20" t="n">
+      <c r="J5" s="20" t="n">
         <v>7.2</v>
       </c>
-      <c r="H5" s="20" t="n">
+      <c r="K5" s="20" t="n">
         <v>4.7</v>
       </c>
-      <c r="J5" s="22" t="n">
+      <c r="M5" s="22" t="n">
         <v>44146</v>
       </c>
-      <c r="K5" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L5" s="16" t="s">
+      <c r="N5" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M5" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P5" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
         <v>132</v>
       </c>
@@ -8912,33 +8974,45 @@
       <c r="D6" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G6, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F6" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G6, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G6" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B6)),0)</f>
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="16" t="n">
+      <c r="J6" s="16" t="n">
         <v>3.2</v>
       </c>
-      <c r="H6" s="16" t="n">
+      <c r="K6" s="16" t="n">
         <v>2.9</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O6" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M6" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P6" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
         <v>138</v>
       </c>
@@ -8951,33 +9025,45 @@
       <c r="D7" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G7, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F7" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G7, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G7" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B7)),0)</f>
+        <v>6</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="I7" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="20" t="n">
+      <c r="J7" s="20" t="n">
         <v>6.3</v>
       </c>
-      <c r="H7" s="20" t="n">
+      <c r="K7" s="20" t="n">
         <v>5.2</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="16" t="s">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P7" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="L7" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q7" s="14"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
         <v>138</v>
       </c>
@@ -8990,33 +9076,45 @@
       <c r="D8" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G8, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F8" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G8, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G8" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B8)),0)</f>
+        <v>6</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="20" t="n">
+      <c r="J8" s="20" t="n">
         <v>2.5</v>
       </c>
-      <c r="H8" s="16" t="n">
+      <c r="K8" s="16" t="n">
         <v>2.2</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="16" t="s">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P8" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="L8" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q8" s="14"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
         <v>138</v>
       </c>
@@ -9029,29 +9127,41 @@
       <c r="D9" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G9, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F9" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G9, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G9" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B9)),0)</f>
+        <v>6</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="16" t="s">
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P9" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="L9" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M9" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q9" s="14"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
         <v>138</v>
       </c>
@@ -9064,27 +9174,39 @@
       <c r="D10" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G10, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F10" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G10, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G10" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B10)),0)</f>
+        <v>6</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="16" t="s">
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="O10" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="M10" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P10" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
         <v>144</v>
       </c>
@@ -9097,37 +9219,49 @@
       <c r="D11" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G11, 7,,, "Sequenced Patient Database"))</f>
+        <v>Male</v>
+      </c>
+      <c r="F11" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G11, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G11" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B11)),0)</f>
+        <v>7</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="20" t="n">
+      <c r="J11" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="H11" s="20" t="n">
+      <c r="K11" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22" t="n">
+      <c r="L11" s="21"/>
+      <c r="M11" s="22" t="n">
         <v>44143</v>
       </c>
-      <c r="K11" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="L11" s="19" t="s">
+      <c r="N11" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="O11" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="M11" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="N11" s="19" t="s">
+      <c r="P11" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q11" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
         <v>151</v>
       </c>
@@ -9140,40 +9274,52 @@
       <c r="D12" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G12, 7,,, "Sequenced Patient Database"))</f>
+        <v>Male</v>
+      </c>
+      <c r="F12" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G12, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G12" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B12)),0)</f>
+        <v>8</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="I12" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="20" t="n">
+      <c r="J12" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="H12" s="20" t="n">
+      <c r="K12" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22" t="n">
+      <c r="L12" s="21"/>
+      <c r="M12" s="22" t="n">
         <v>44143</v>
       </c>
-      <c r="K12" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="L12" s="19" t="s">
+      <c r="N12" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="O12" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="M12" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="N12" s="16" t="s">
+      <c r="P12" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q12" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="3" t="s">
+      <c r="R12" s="1"/>
+      <c r="S12" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
         <v>156</v>
       </c>
@@ -9186,34 +9332,46 @@
       <c r="D13" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G13, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F13" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G13, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G13" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B13)),0)</f>
+        <v>9</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="I13" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="20" t="n">
+      <c r="J13" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="H13" s="20" t="n">
+      <c r="K13" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="J13" s="22" t="n">
+      <c r="M13" s="22" t="n">
         <v>43791</v>
       </c>
-      <c r="K13" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L13" s="16" t="s">
+      <c r="N13" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O13" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M13" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P13" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
         <v>156</v>
       </c>
@@ -9226,31 +9384,43 @@
       <c r="D14" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G14, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F14" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G14, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G14" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B14)),0)</f>
+        <v>9</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="I14" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="16" t="n">
+      <c r="J14" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="20"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P14" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M14" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q14" s="14"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
         <v>160</v>
       </c>
@@ -9263,35 +9433,47 @@
       <c r="D15" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G15, 7,,, "Sequenced Patient Database"))</f>
+        <v>Male</v>
+      </c>
+      <c r="F15" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G15, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G15" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B15)),0)</f>
+        <v>10</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="I15" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="G15" s="20" t="n">
+      <c r="J15" s="20" t="n">
         <v>5.2</v>
       </c>
-      <c r="H15" s="20" t="n">
+      <c r="K15" s="20" t="n">
         <v>3.6</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22" t="n">
+      <c r="L15" s="21"/>
+      <c r="M15" s="22" t="n">
         <v>44006</v>
       </c>
-      <c r="K15" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L15" s="16" t="s">
+      <c r="N15" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O15" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M15" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
         <v>165</v>
       </c>
@@ -9304,38 +9486,50 @@
       <c r="D16" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G16, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F16" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G16, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G16" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B16)),0)</f>
+        <v>11</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="I16" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="20" t="n">
+      <c r="J16" s="20" t="n">
         <v>17</v>
       </c>
-      <c r="H16" s="20" t="n">
+      <c r="K16" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="I16" s="20" t="n">
+      <c r="L16" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="J16" s="26" t="n">
+      <c r="M16" s="26" t="n">
         <v>43767</v>
       </c>
-      <c r="K16" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L16" s="16" t="s">
+      <c r="N16" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O16" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M16" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="N16" s="16" t="s">
+      <c r="P16" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q16" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
         <v>165</v>
       </c>
@@ -9348,29 +9542,41 @@
       <c r="D17" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G17, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F17" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G17, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G17" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B17)),0)</f>
+        <v>11</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="I17" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="G17" s="16" t="n">
+      <c r="J17" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="20"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P17" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="L17" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M17" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="N17" s="20"/>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
         <v>170</v>
       </c>
@@ -9383,37 +9589,49 @@
       <c r="D18" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G18, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F18" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G18, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G18" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B18)),0)</f>
+        <v>12</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="I18" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="G18" s="20" t="n">
+      <c r="J18" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="H18" s="20" t="n">
+      <c r="K18" s="20" t="n">
         <v>4.3</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="22" t="n">
+      <c r="L18" s="3"/>
+      <c r="M18" s="22" t="n">
         <v>42807</v>
       </c>
-      <c r="K18" s="50" t="s">
-        <v>414</v>
-      </c>
-      <c r="L18" s="16" t="s">
+      <c r="N18" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="O18" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="0" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P18" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
         <v>170</v>
       </c>
@@ -9426,32 +9644,44 @@
       <c r="D19" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G19, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F19" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G19, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G19" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B19)),0)</f>
+        <v>12</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="I19" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="20" t="n">
+      <c r="J19" s="20" t="n">
         <v>8.3</v>
       </c>
-      <c r="H19" s="16" t="n">
+      <c r="K19" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="16" t="s">
+      <c r="L19" s="3"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="O19" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="M19" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N19" s="14"/>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P19" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
         <v>170</v>
       </c>
@@ -9464,32 +9694,44 @@
       <c r="D20" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="F20" s="16" t="s">
+      <c r="E20" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G20, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F20" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G20, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G20" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B20)),0)</f>
+        <v>12</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I20" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="20" t="n">
+      <c r="J20" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="H20" s="20" t="n">
+      <c r="K20" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="16" t="s">
+      <c r="L20" s="3"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P20" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="L20" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M20" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N20" s="14"/>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
         <v>177</v>
       </c>
@@ -9502,32 +9744,44 @@
       <c r="D21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G21, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F21" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G21, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G21" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B21)),0)</f>
+        <v>13</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="I21" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G21" s="19" t="n">
+      <c r="J21" s="19" t="n">
         <v>6.5</v>
       </c>
-      <c r="H21" s="19" t="n">
+      <c r="K21" s="19" t="n">
         <v>7.1</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="16" t="s">
+      <c r="L21" s="3"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P21" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="L21" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M21" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N21" s="14"/>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
         <v>182</v>
       </c>
@@ -9540,34 +9794,46 @@
       <c r="D22" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G22, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F22" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G22, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G22" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B22)),0)</f>
+        <v>14</v>
+      </c>
+      <c r="H22" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="I22" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="19" t="n">
+      <c r="J22" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="H22" s="19" t="n">
+      <c r="K22" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="22" t="n">
+      <c r="L22" s="19"/>
+      <c r="M22" s="22" t="n">
         <v>43771</v>
       </c>
-      <c r="K22" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="L22" s="19" t="s">
+      <c r="N22" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="O22" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="M22" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="N22" s="14"/>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P22" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
         <v>189</v>
       </c>
@@ -9580,34 +9846,46 @@
       <c r="D23" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G23, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F23" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G23, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G23" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B23)),0)</f>
+        <v>15</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="I23" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G23" s="16" t="n">
+      <c r="J23" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="H23" s="16" t="n">
+      <c r="K23" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="22" t="n">
+      <c r="L23" s="3"/>
+      <c r="M23" s="22" t="n">
         <v>40942</v>
       </c>
-      <c r="K23" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L23" s="16" t="s">
+      <c r="N23" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O23" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M23" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="N23" s="14"/>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P23" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q23" s="14"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
         <v>192</v>
       </c>
@@ -9620,36 +9898,48 @@
       <c r="D24" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G24, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F24" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G24, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G24" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B24)),0)</f>
+        <v>16</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="I24" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="32" t="n">
+      <c r="J24" s="32" t="n">
         <v>8.3</v>
       </c>
-      <c r="H24" s="32" t="n">
+      <c r="K24" s="32" t="n">
         <v>4.7</v>
       </c>
-      <c r="J24" s="22" t="n">
+      <c r="M24" s="22" t="n">
         <v>44166</v>
       </c>
-      <c r="K24" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L24" s="16" t="s">
+      <c r="N24" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O24" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M24" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N24" s="20"/>
-      <c r="O24" s="0" t="s">
+      <c r="P24" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="0" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
         <v>192</v>
       </c>
@@ -9662,32 +9952,44 @@
       <c r="D25" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G25, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F25" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G25, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G25" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B25)),0)</f>
+        <v>16</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="I25" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="32" t="n">
+      <c r="J25" s="32" t="n">
         <v>5.8</v>
       </c>
-      <c r="H25" s="32" t="n">
+      <c r="K25" s="32" t="n">
         <v>2.6</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L25" s="16" t="s">
+      <c r="L25" s="3"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O25" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M25" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="N25" s="14"/>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P25" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
         <v>192</v>
       </c>
@@ -9700,30 +10002,42 @@
       <c r="D26" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16" t="s">
+      <c r="E26" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G26, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F26" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G26, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G26" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B26)),0)</f>
+        <v>16</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G26" s="32" t="n">
+      <c r="J26" s="32" t="n">
         <v>3.8</v>
       </c>
-      <c r="H26" s="32" t="n">
+      <c r="K26" s="32" t="n">
         <v>3.2</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="16" t="s">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P26" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="L26" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M26" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="N26" s="14"/>
-    </row>
-    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
         <v>196</v>
       </c>
@@ -9736,34 +10050,46 @@
       <c r="D27" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G27, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F27" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G27, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G27" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B27)),0)</f>
+        <v>17</v>
+      </c>
+      <c r="H27" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="I27" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="16" t="n">
+      <c r="J27" s="16" t="n">
         <v>10.2</v>
       </c>
-      <c r="H27" s="16" t="n">
+      <c r="K27" s="16" t="n">
         <v>5.9</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22" t="n">
+      <c r="L27" s="21"/>
+      <c r="M27" s="22" t="n">
         <v>43984</v>
       </c>
-      <c r="K27" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L27" s="16" t="s">
+      <c r="N27" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O27" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M27" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N27" s="14"/>
-    </row>
-    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P27" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q27" s="14"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
         <v>198</v>
       </c>
@@ -9776,37 +10102,49 @@
       <c r="D28" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G28, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F28" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G28, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G28" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B28)),0)</f>
+        <v>18</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="I28" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="16" t="n">
+      <c r="J28" s="16" t="n">
         <v>5.8</v>
       </c>
-      <c r="H28" s="16" t="n">
+      <c r="K28" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="53" t="n">
+      <c r="L28" s="52"/>
+      <c r="M28" s="53" t="n">
         <v>44201</v>
       </c>
-      <c r="K28" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L28" s="16" t="s">
+      <c r="N28" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O28" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M28" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N28" s="5"/>
-      <c r="O28" s="20" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P28" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
         <v>201</v>
       </c>
@@ -9819,37 +10157,49 @@
       <c r="D29" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G29, 7,,, "Sequenced Patient Database"))</f>
+        <v>Male</v>
+      </c>
+      <c r="F29" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G29, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G29" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B29)),0)</f>
+        <v>19</v>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="I29" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G29" s="16" t="n">
+      <c r="J29" s="16" t="n">
         <v>7.1</v>
       </c>
-      <c r="H29" s="16" t="n">
+      <c r="K29" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="22" t="n">
+      <c r="L29" s="3"/>
+      <c r="M29" s="22" t="n">
         <v>44167</v>
       </c>
-      <c r="K29" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L29" s="16" t="s">
+      <c r="N29" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O29" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M29" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N29" s="5"/>
-      <c r="O29" s="8" t="s">
+      <c r="P29" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
         <v>205</v>
       </c>
@@ -9862,35 +10212,47 @@
       <c r="D30" s="51" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G30, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F30" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G30, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G30" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B30)),0)</f>
+        <v>20</v>
+      </c>
+      <c r="H30" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="I30" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G30" s="19" t="n">
+      <c r="J30" s="19" t="n">
         <v>4.7</v>
       </c>
-      <c r="H30" s="19" t="n">
+      <c r="K30" s="19" t="n">
         <v>4.4</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="22" t="n">
+      <c r="L30" s="3"/>
+      <c r="M30" s="22" t="n">
         <v>44167</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="N30" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="O30" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="M30" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N30" s="5"/>
-      <c r="O30" s="8"/>
-    </row>
-    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P30" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
         <v>205</v>
       </c>
@@ -9903,34 +10265,46 @@
       <c r="D31" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G31, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F31" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G31, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G31" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B31)),0)</f>
+        <v>20</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G31" s="3" t="n">
+      <c r="J31" s="3" t="n">
         <v>4.5</v>
       </c>
-      <c r="H31" s="3" t="n">
+      <c r="K31" s="3" t="n">
         <v>3.2</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="22" t="n">
+      <c r="L31" s="21"/>
+      <c r="M31" s="22" t="n">
         <v>44139</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="N31" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="O31" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="M31" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N31" s="20"/>
-    </row>
-    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P31" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q31" s="20"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
         <v>205</v>
       </c>
@@ -9943,34 +10317,46 @@
       <c r="D32" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G32, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F32" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G32, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G32" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B32)),0)</f>
+        <v>20</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G32" s="16" t="n">
+      <c r="J32" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="H32" s="50" t="n">
+      <c r="K32" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="22" t="n">
+      <c r="L32" s="21"/>
+      <c r="M32" s="22" t="n">
         <v>44139</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="N32" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="O32" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="M32" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N32" s="20"/>
-    </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P32" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q32" s="20"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
         <v>211</v>
       </c>
@@ -9983,33 +10369,45 @@
       <c r="D33" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G33, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F33" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G33, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G33" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B33)),0)</f>
+        <v>21</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="I33" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G33" s="20" t="n">
+      <c r="J33" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="H33" s="20" t="n">
+      <c r="K33" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="J33" s="22" t="n">
+      <c r="M33" s="22" t="n">
         <v>43989</v>
       </c>
-      <c r="K33" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L33" s="16" t="s">
+      <c r="N33" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O33" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M33" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="N33" s="20"/>
-    </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P33" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q33" s="20"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
         <v>215</v>
       </c>
@@ -10022,33 +10420,45 @@
       <c r="D34" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G34, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F34" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G34, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G34" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B34)),0)</f>
+        <v>22</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="I34" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G34" s="16" t="n">
+      <c r="J34" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="H34" s="16" t="n">
+      <c r="K34" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="J34" s="22" t="n">
+      <c r="M34" s="22" t="n">
         <v>43868</v>
       </c>
-      <c r="K34" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L34" s="16" t="s">
+      <c r="N34" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O34" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M34" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="N34" s="20"/>
-    </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P34" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q34" s="20"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
         <v>215</v>
       </c>
@@ -10061,33 +10471,45 @@
       <c r="D35" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="F35" s="16" t="s">
+      <c r="E35" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G35, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F35" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G35, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G35" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B35)),0)</f>
+        <v>22</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="I35" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="J35" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="H35" s="16" t="n">
+      <c r="K35" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="J35" s="22" t="n">
+      <c r="M35" s="22" t="n">
         <v>44168</v>
       </c>
-      <c r="K35" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L35" s="16" t="s">
+      <c r="N35" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O35" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M35" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N35" s="20"/>
-    </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P35" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q35" s="20"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
         <v>220</v>
       </c>
@@ -10100,34 +10522,46 @@
       <c r="D36" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G36, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F36" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G36, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G36" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B36)),0)</f>
+        <v>23</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="I36" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="G36" s="20" t="n">
+      <c r="J36" s="20" t="n">
         <v>7.6</v>
       </c>
-      <c r="H36" s="20" t="n">
+      <c r="K36" s="20" t="n">
         <v>4.6</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="22" t="n">
+      <c r="L36" s="20"/>
+      <c r="M36" s="22" t="n">
         <v>44082</v>
       </c>
-      <c r="K36" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L36" s="16" t="s">
+      <c r="N36" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O36" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M36" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="N36" s="20"/>
-    </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P36" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q36" s="20"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
         <v>224</v>
       </c>
@@ -10140,34 +10574,46 @@
       <c r="D37" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G37, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F37" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G37, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G37" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B37)),0)</f>
+        <v>24</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="I37" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="16" t="n">
+      <c r="J37" s="16" t="n">
         <v>8.3</v>
       </c>
-      <c r="H37" s="16" t="n">
+      <c r="K37" s="16" t="n">
         <v>7.9</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="22" t="n">
+      <c r="L37" s="3"/>
+      <c r="M37" s="22" t="n">
         <v>43805</v>
       </c>
-      <c r="K37" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L37" s="16" t="s">
+      <c r="N37" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O37" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M37" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N37" s="20"/>
-    </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P37" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q37" s="20"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
         <v>228</v>
       </c>
@@ -10180,33 +10626,45 @@
       <c r="D38" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G38, 7,,, "Sequenced Patient Database"))</f>
+        <v>Male</v>
+      </c>
+      <c r="F38" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G38, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G38" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B38)),0)</f>
+        <v>25</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="I38" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G38" s="20" t="n">
+      <c r="J38" s="20" t="n">
         <v>10.2</v>
       </c>
-      <c r="H38" s="20" t="n">
+      <c r="K38" s="20" t="n">
         <v>6.5</v>
       </c>
-      <c r="J38" s="22" t="n">
+      <c r="M38" s="22" t="n">
         <v>43983</v>
       </c>
-      <c r="K38" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L38" s="16" t="s">
+      <c r="N38" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O38" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M38" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="N38" s="20"/>
-    </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P38" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q38" s="20"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
         <v>231</v>
       </c>
@@ -10219,36 +10677,48 @@
       <c r="D39" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G39, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F39" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G39, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G39" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B39)),0)</f>
+        <v>26</v>
+      </c>
+      <c r="H39" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="I39" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="32" t="n">
+      <c r="J39" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="H39" s="32" t="n">
+      <c r="K39" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="L39" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="J39" s="22" t="n">
+      <c r="M39" s="22" t="n">
         <v>44174</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="N39" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="L39" s="16" t="s">
+      <c r="O39" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="M39" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N39" s="20"/>
-    </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P39" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q39" s="20"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
         <v>235</v>
       </c>
@@ -10261,37 +10731,49 @@
       <c r="D40" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G40, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F40" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G40, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G40" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B40)),0)</f>
+        <v>27</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="I40" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G40" s="32" t="n">
+      <c r="J40" s="32" t="n">
         <v>3.5</v>
       </c>
-      <c r="H40" s="32" t="n">
+      <c r="K40" s="32" t="n">
         <v>2.7</v>
       </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="15" t="n">
+      <c r="L40" s="16"/>
+      <c r="M40" s="15" t="n">
         <v>44179</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="N40" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="L40" s="16" t="s">
+      <c r="O40" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="M40" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="N40" s="20"/>
-      <c r="O40" s="0" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P40" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
         <v>237</v>
       </c>
@@ -10304,37 +10786,49 @@
       <c r="D41" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G41, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F41" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G41, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G41" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B41)),0)</f>
+        <v>28</v>
+      </c>
+      <c r="H41" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="I41" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="16" t="n">
+      <c r="J41" s="16" t="n">
         <v>3.5</v>
       </c>
-      <c r="H41" s="16" t="n">
+      <c r="K41" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="22" t="n">
+      <c r="L41" s="16"/>
+      <c r="M41" s="22" t="n">
         <v>44200</v>
       </c>
-      <c r="K41" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L41" s="16" t="s">
+      <c r="N41" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O41" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M41" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N41" s="20"/>
-      <c r="O41" s="0" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P41" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
         <v>240</v>
       </c>
@@ -10347,34 +10841,46 @@
       <c r="D42" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G42, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F42" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G42, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G42" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B42)),0)</f>
+        <v>29</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="I42" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="G42" s="16" t="n">
+      <c r="J42" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="H42" s="16" t="n">
+      <c r="K42" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="22" t="n">
+      <c r="L42" s="3"/>
+      <c r="M42" s="22" t="n">
         <v>43991</v>
       </c>
-      <c r="K42" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L42" s="16" t="s">
+      <c r="N42" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O42" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M42" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N42" s="20"/>
-    </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P42" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q42" s="20"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
         <v>240</v>
       </c>
@@ -10387,32 +10893,44 @@
       <c r="D43" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="F43" s="16" t="s">
+      <c r="E43" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G43, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F43" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G43, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G43" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B43)),0)</f>
+        <v>29</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="I43" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="20" t="n">
+      <c r="J43" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="H43" s="16" t="n">
+      <c r="K43" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="16" t="s">
+      <c r="L43" s="3"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O43" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P43" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="L43" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M43" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N43" s="20"/>
-    </row>
-    <row r="44" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q43" s="20"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
         <v>247</v>
       </c>
@@ -10423,34 +10941,46 @@
         <v>43</v>
       </c>
       <c r="D44" s="12"/>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G44, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F44" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G44, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G44" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B44)),0)</f>
+        <v>31</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="I44" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="20" t="n">
+      <c r="J44" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="H44" s="20" t="n">
+      <c r="K44" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="I44" s="21"/>
-      <c r="J44" s="22" t="n">
+      <c r="L44" s="21"/>
+      <c r="M44" s="22" t="n">
         <v>43802</v>
       </c>
-      <c r="K44" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L44" s="16" t="s">
+      <c r="N44" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O44" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M44" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N44" s="20"/>
-    </row>
-    <row r="45" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P44" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q44" s="20"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
         <v>247</v>
       </c>
@@ -10463,34 +10993,46 @@
       <c r="D45" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G45, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F45" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G45, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G45" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B45)),0)</f>
+        <v>31</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="I45" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="32" t="n">
+      <c r="J45" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="H45" s="32" t="n">
+      <c r="K45" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="22" t="n">
+      <c r="L45" s="21"/>
+      <c r="M45" s="22" t="n">
         <v>43802</v>
       </c>
-      <c r="K45" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L45" s="16" t="s">
+      <c r="N45" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O45" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M45" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="N45" s="20"/>
-    </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P45" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q45" s="20"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
         <v>250</v>
       </c>
@@ -10503,32 +11045,44 @@
       <c r="D46" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G46, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F46" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G46, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G46" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B46)),0)</f>
+        <v>32</v>
+      </c>
+      <c r="H46" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="I46" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="20" t="n">
+      <c r="J46" s="20" t="n">
         <v>5.7</v>
       </c>
-      <c r="H46" s="20" t="n">
+      <c r="K46" s="20" t="n">
         <v>6.3</v>
       </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16" t="s">
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O46" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P46" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="L46" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M46" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N46" s="20"/>
-    </row>
-    <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q46" s="20"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
         <v>250</v>
       </c>
@@ -10541,32 +11095,44 @@
       <c r="D47" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G47, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F47" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G47, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G47" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B47)),0)</f>
+        <v>32</v>
+      </c>
+      <c r="H47" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="I47" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G47" s="16" t="n">
+      <c r="J47" s="16" t="n">
         <v>5.4</v>
       </c>
-      <c r="H47" s="16" t="n">
+      <c r="K47" s="16" t="n">
         <v>6.3</v>
       </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="16" t="s">
+      <c r="L47" s="16"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O47" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P47" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="L47" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M47" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N47" s="20"/>
-    </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q47" s="20"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
         <v>252</v>
       </c>
@@ -10579,35 +11145,47 @@
       <c r="D48" s="55" t="n">
         <v>1</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G48, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F48" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G48, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G48" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B48)),0)</f>
+        <v>33</v>
+      </c>
+      <c r="H48" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="I48" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="32" t="n">
+      <c r="J48" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="H48" s="32" t="n">
+      <c r="K48" s="32" t="n">
         <v>4.5</v>
       </c>
-      <c r="J48" s="22" t="n">
+      <c r="M48" s="22" t="n">
         <v>44180</v>
       </c>
-      <c r="K48" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L48" s="16" t="s">
+      <c r="N48" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O48" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M48" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="N48" s="16" t="s">
+      <c r="P48" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q48" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
         <v>252</v>
       </c>
@@ -10620,30 +11198,42 @@
       <c r="D49" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G49, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F49" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G49, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G49" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B49)),0)</f>
+        <v>33</v>
+      </c>
+      <c r="H49" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="I49" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G49" s="32" t="n">
+      <c r="J49" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="H49" s="32" t="n">
+      <c r="K49" s="32" t="n">
         <v>12</v>
       </c>
-      <c r="K49" s="16" t="s">
+      <c r="N49" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O49" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P49" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="L49" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M49" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N49" s="16"/>
-    </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q49" s="16"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
         <v>252</v>
       </c>
@@ -10656,30 +11246,42 @@
       <c r="D50" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="F50" s="16" t="s">
+      <c r="E50" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G50, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F50" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G50, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G50" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B50)),0)</f>
+        <v>33</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="I50" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G50" s="32" t="n">
+      <c r="J50" s="32" t="n">
         <v>5.6</v>
       </c>
-      <c r="H50" s="32" t="n">
+      <c r="K50" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="N50" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O50" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P50" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="L50" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M50" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N50" s="16"/>
-    </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q50" s="16"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
         <v>258</v>
       </c>
@@ -10692,34 +11294,46 @@
       <c r="D51" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G51, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F51" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G51, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G51" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B51)),0)</f>
+        <v>34</v>
+      </c>
+      <c r="H51" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="I51" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G51" s="20" t="n">
+      <c r="J51" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="H51" s="20" t="n">
+      <c r="K51" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="26" t="n">
+      <c r="L51" s="20"/>
+      <c r="M51" s="26" t="n">
         <v>43788</v>
       </c>
-      <c r="K51" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L51" s="16" t="s">
+      <c r="N51" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O51" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M51" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N51" s="16"/>
-    </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P51" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q51" s="16"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
         <v>261</v>
       </c>
@@ -10732,33 +11346,45 @@
       <c r="D52" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G52, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F52" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G52, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G52" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B52)),0)</f>
+        <v>35</v>
+      </c>
+      <c r="H52" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="I52" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G52" s="20" t="n">
+      <c r="J52" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="H52" s="20" t="n">
+      <c r="K52" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="J52" s="26" t="n">
+      <c r="M52" s="26" t="n">
         <v>44183</v>
       </c>
-      <c r="K52" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L52" s="16" t="s">
+      <c r="N52" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O52" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M52" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N52" s="16"/>
-    </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P52" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q52" s="16"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
         <v>261</v>
       </c>
@@ -10771,32 +11397,44 @@
       <c r="D53" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F53" s="16" t="s">
+      <c r="E53" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G53, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F53" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G53, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G53" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B53)),0)</f>
+        <v>35</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="I53" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G53" s="20" t="n">
+      <c r="J53" s="20" t="n">
         <v>2.6</v>
       </c>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="26" t="n">
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="26" t="n">
         <v>44183</v>
       </c>
-      <c r="K53" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L53" s="16" t="s">
+      <c r="N53" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O53" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M53" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N53" s="16"/>
-    </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P53" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q53" s="16"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="16" t="s">
         <v>265</v>
       </c>
@@ -10809,35 +11447,47 @@
       <c r="D54" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G54, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F54" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G54, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G54" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B54)),0)</f>
+        <v>36</v>
+      </c>
+      <c r="H54" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="I54" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G54" s="20" t="n">
+      <c r="J54" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="H54" s="20" t="n">
+      <c r="K54" s="20" t="n">
         <v>4.5</v>
       </c>
-      <c r="J54" s="22" t="n">
+      <c r="M54" s="22" t="n">
         <v>41157</v>
       </c>
-      <c r="K54" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L54" s="16" t="s">
+      <c r="N54" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O54" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M54" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N54" s="20" t="s">
+      <c r="P54" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q54" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="16" t="s">
         <v>265</v>
       </c>
@@ -10850,31 +11500,43 @@
       <c r="D55" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G55, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F55" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G55, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G55" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B55)),0)</f>
+        <v>36</v>
+      </c>
+      <c r="H55" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="I55" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G55" s="20" t="n">
+      <c r="J55" s="20" t="n">
         <v>4.6</v>
       </c>
-      <c r="H55" s="20"/>
-      <c r="J55" s="26" t="n">
+      <c r="K55" s="20"/>
+      <c r="M55" s="26" t="n">
         <v>40777</v>
       </c>
-      <c r="K55" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L55" s="16" t="s">
+      <c r="N55" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O55" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M55" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N55" s="16"/>
-    </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P55" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q55" s="16"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="16" t="s">
         <v>265</v>
       </c>
@@ -10887,30 +11549,42 @@
       <c r="D56" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G56, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F56" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G56, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G56" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B56)),0)</f>
+        <v>36</v>
+      </c>
+      <c r="H56" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="I56" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="G56" s="20" t="n">
+      <c r="J56" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="H56" s="20" t="n">
+      <c r="K56" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="K56" s="16" t="s">
+      <c r="N56" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="L56" s="16" t="s">
+      <c r="O56" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="M56" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="N56" s="16"/>
-    </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P56" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q56" s="16"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="16" t="s">
         <v>270</v>
       </c>
@@ -10923,35 +11597,47 @@
       <c r="D57" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G57, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F57" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G57, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G57" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B57)),0)</f>
+        <v>37</v>
+      </c>
+      <c r="H57" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="I57" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G57" s="20" t="n">
+      <c r="J57" s="20" t="n">
         <v>3.1</v>
       </c>
-      <c r="H57" s="20" t="n">
+      <c r="K57" s="20" t="n">
         <v>2.9</v>
       </c>
-      <c r="J57" s="22" t="n">
+      <c r="M57" s="22" t="n">
         <v>44197</v>
       </c>
-      <c r="K57" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L57" s="16" t="s">
+      <c r="N57" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O57" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M57" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="N57" s="16" t="s">
+      <c r="P57" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q57" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="16" t="s">
         <v>272</v>
       </c>
@@ -10964,36 +11650,48 @@
       <c r="D58" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G58, 7,,, "Sequenced Patient Database"))</f>
+        <v>Male</v>
+      </c>
+      <c r="F58" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G58, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G58" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B58)),0)</f>
+        <v>38</v>
+      </c>
+      <c r="H58" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="I58" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G58" s="20" t="n">
+      <c r="J58" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="H58" s="20" t="n">
+      <c r="K58" s="20" t="n">
         <v>4.8</v>
       </c>
-      <c r="I58" s="20"/>
-      <c r="J58" s="26" t="n">
+      <c r="L58" s="20"/>
+      <c r="M58" s="26" t="n">
         <v>44014</v>
       </c>
-      <c r="K58" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L58" s="16" t="s">
+      <c r="N58" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O58" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M58" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="N58" s="16" t="s">
+      <c r="P58" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q58" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="16" t="s">
         <v>275</v>
       </c>
@@ -11006,33 +11704,45 @@
       <c r="D59" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E59" s="57" t="s">
+      <c r="E59" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G59, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F59" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G59, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G59" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B59)),0)</f>
+        <v>39</v>
+      </c>
+      <c r="H59" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="I59" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G59" s="20" t="n">
+      <c r="J59" s="20" t="n">
         <v>4.2</v>
       </c>
-      <c r="H59" s="20" t="n">
+      <c r="K59" s="20" t="n">
         <v>4.8</v>
       </c>
-      <c r="J59" s="22" t="n">
+      <c r="M59" s="22" t="n">
         <v>44209</v>
       </c>
-      <c r="K59" s="16" t="s">
+      <c r="N59" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="L59" s="16" t="s">
+      <c r="O59" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="M59" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N59" s="16"/>
-    </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P59" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q59" s="16"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="16" t="s">
         <v>287</v>
       </c>
@@ -11045,31 +11755,43 @@
       <c r="D60" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G60, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F60" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G60, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G60" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B60)),0)</f>
+        <v>43</v>
+      </c>
+      <c r="H60" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="I60" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="G60" s="20" t="n">
+      <c r="J60" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="H60" s="0" t="n">
+      <c r="K60" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J60" s="23"/>
-      <c r="K60" s="0" t="s">
+      <c r="M60" s="23"/>
+      <c r="N60" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="O60" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P60" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="L60" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M60" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="N60" s="16"/>
-    </row>
-    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q60" s="16"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="16" t="s">
         <v>291</v>
       </c>
@@ -11082,33 +11804,45 @@
       <c r="D61" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G61, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F61" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G61, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G61" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B61)),0)</f>
+        <v>44</v>
+      </c>
+      <c r="H61" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="I61" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G61" s="20" t="n">
+      <c r="J61" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="H61" s="0" t="n">
+      <c r="K61" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="J61" s="22" t="n">
+      <c r="M61" s="22" t="n">
         <v>43091</v>
       </c>
-      <c r="K61" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L61" s="16" t="s">
+      <c r="N61" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O61" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M61" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="N61" s="16"/>
-    </row>
-    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P61" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q61" s="16"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="16" t="s">
         <v>294</v>
       </c>
@@ -11121,30 +11855,42 @@
       <c r="D62" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G62, 7,,, "Sequenced Patient Database"))</f>
+        <v>Male</v>
+      </c>
+      <c r="F62" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G62, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G62" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B62)),0)</f>
+        <v>45</v>
+      </c>
+      <c r="H62" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="I62" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G62" s="32" t="n">
+      <c r="J62" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="H62" s="32" t="n">
+      <c r="K62" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="K62" s="16" t="s">
+      <c r="N62" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O62" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P62" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="L62" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M62" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="N62" s="16"/>
-    </row>
-    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q62" s="16"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="16" t="s">
         <v>297</v>
       </c>
@@ -11157,30 +11903,42 @@
       <c r="D63" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G63, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F63" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G63, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G63" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B63)),0)</f>
+        <v>46</v>
+      </c>
+      <c r="H63" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="I63" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="32" t="n">
+      <c r="J63" s="32" t="n">
         <v>4.7</v>
       </c>
-      <c r="H63" s="0" t="n">
+      <c r="K63" s="0" t="n">
         <v>4.8</v>
       </c>
-      <c r="K63" s="16" t="s">
+      <c r="N63" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O63" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P63" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="L63" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M63" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="N63" s="16"/>
-    </row>
-    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q63" s="16"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="16" t="s">
         <v>297</v>
       </c>
@@ -11193,30 +11951,42 @@
       <c r="D64" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G64, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F64" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G64, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G64" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B64)),0)</f>
+        <v>46</v>
+      </c>
+      <c r="H64" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="I64" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="J64" s="0" t="n">
         <v>1.9</v>
       </c>
-      <c r="H64" s="0" t="n">
+      <c r="K64" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="K64" s="16" t="s">
+      <c r="N64" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O64" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P64" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="L64" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M64" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N64" s="16"/>
-    </row>
-    <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q64" s="16"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="16" t="s">
         <v>301</v>
       </c>
@@ -11229,35 +11999,47 @@
       <c r="D65" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G65, 7,,, "Sequenced Patient Database"))</f>
+        <v>Male</v>
+      </c>
+      <c r="F65" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G65, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G65" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B65)),0)</f>
+        <v>47</v>
+      </c>
+      <c r="H65" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="I65" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G65" s="32" t="n">
+      <c r="J65" s="32" t="n">
         <v>12</v>
       </c>
-      <c r="H65" s="0" t="n">
+      <c r="K65" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J65" s="22" t="n">
+      <c r="M65" s="22" t="n">
         <v>44092</v>
       </c>
-      <c r="K65" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L65" s="16" t="s">
+      <c r="N65" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O65" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M65" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="N65" s="0" t="s">
+      <c r="P65" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q65" s="0" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="16" t="s">
         <v>305</v>
       </c>
@@ -11270,37 +12052,49 @@
       <c r="D66" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G66, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F66" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G66, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G66" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B66)),0)</f>
+        <v>48</v>
+      </c>
+      <c r="H66" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="I66" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G66" s="32" t="n">
+      <c r="J66" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="H66" s="6" t="n">
+      <c r="K66" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="I66" s="23"/>
-      <c r="J66" s="22" t="n">
+      <c r="L66" s="23"/>
+      <c r="M66" s="22" t="n">
         <v>42589</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="L66" s="16" t="s">
+      <c r="N66" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="O66" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="N66" s="0" t="s">
+      <c r="P66" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q66" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="O66" s="22"/>
-    </row>
-    <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R66" s="22"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="16" t="s">
         <v>307</v>
       </c>
@@ -11313,35 +12107,47 @@
       <c r="D67" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G67, 7,,, "Sequenced Patient Database"))</f>
+        <v>Male</v>
+      </c>
+      <c r="F67" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G67, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G67" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B67)),0)</f>
+        <v>49</v>
+      </c>
+      <c r="H67" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="I67" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G67" s="20" t="n">
+      <c r="J67" s="20" t="n">
         <v>6.5</v>
       </c>
-      <c r="H67" s="20" t="n">
+      <c r="K67" s="20" t="n">
         <v>5.1</v>
       </c>
-      <c r="J67" s="26" t="n">
+      <c r="M67" s="26" t="n">
         <v>44239</v>
       </c>
-      <c r="K67" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L67" s="16" t="s">
+      <c r="N67" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O67" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M67" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="N67" s="20" t="s">
+      <c r="P67" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q67" s="20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="16" t="s">
         <v>307</v>
       </c>
@@ -11354,26 +12160,38 @@
       <c r="D68" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G68, 7,,, "Sequenced Patient Database"))</f>
+        <v>Male</v>
+      </c>
+      <c r="F68" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G68, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G68" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B68)),0)</f>
+        <v>49</v>
+      </c>
+      <c r="H68" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="I68" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="G68" s="20" t="n">
+      <c r="J68" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="H68" s="20" t="n">
+      <c r="K68" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="K68" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="L68" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M68" s="46"/>
-      <c r="N68" s="16"/>
+      <c r="N68" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O68" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="16"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="16" t="s">
@@ -11388,32 +12206,44 @@
       <c r="D69" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G69, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F69" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G69, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G69" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B69)),0)</f>
+        <v>51</v>
+      </c>
+      <c r="H69" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="I69" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G69" s="20" t="n">
+      <c r="J69" s="20" t="n">
         <v>6.7</v>
       </c>
-      <c r="H69" s="0" t="n">
+      <c r="K69" s="0" t="n">
         <v>2.9</v>
       </c>
-      <c r="J69" s="26" t="n">
+      <c r="M69" s="26" t="n">
         <v>44256</v>
       </c>
-      <c r="K69" s="16" t="s">
+      <c r="N69" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="L69" s="16" t="s">
+      <c r="O69" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="M69" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P69" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="16" t="s">
         <v>312</v>
       </c>
@@ -11426,37 +12256,49 @@
       <c r="D70" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G70, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F70" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G70, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G70" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B70)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="H70" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="I70" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="G70" s="20" t="n">
+      <c r="J70" s="20" t="n">
         <v>6.1</v>
       </c>
-      <c r="H70" s="20" t="n">
+      <c r="K70" s="20" t="n">
         <v>4.4</v>
       </c>
-      <c r="I70" s="20"/>
-      <c r="J70" s="26" t="n">
+      <c r="L70" s="20"/>
+      <c r="M70" s="26" t="n">
         <v>44250</v>
       </c>
-      <c r="K70" s="41" t="s">
-        <v>414</v>
-      </c>
-      <c r="L70" s="16" t="s">
+      <c r="N70" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="O70" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M70" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="N70" s="20" t="s">
+      <c r="P70" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q70" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="O70" s="20"/>
-    </row>
-    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R70" s="20"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="16" t="s">
         <v>325</v>
       </c>
@@ -11469,36 +12311,48 @@
       <c r="D71" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G71, 7,,, "Sequenced Patient Database"))</f>
+        <v>Male</v>
+      </c>
+      <c r="F71" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G71, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G71" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B71)),0)</f>
+        <v>54</v>
+      </c>
+      <c r="H71" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="I71" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G71" s="16" t="n">
+      <c r="J71" s="16" t="n">
         <v>3.6</v>
       </c>
-      <c r="H71" s="16" t="n">
+      <c r="K71" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="I71" s="16"/>
-      <c r="J71" s="22" t="n">
+      <c r="L71" s="16"/>
+      <c r="M71" s="22" t="n">
         <v>43973</v>
       </c>
-      <c r="K71" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L71" s="3" t="s">
+      <c r="N71" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O71" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="M71" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="N71" s="0" t="s">
+      <c r="P71" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q71" s="0" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="16" t="s">
         <v>329</v>
       </c>
@@ -11511,37 +12365,49 @@
       <c r="D72" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G72, 7,,, "Sequenced Patient Database"))</f>
+        <v>Male</v>
+      </c>
+      <c r="F72" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G72, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G72" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B72)),0)</f>
+        <v>55</v>
+      </c>
+      <c r="H72" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="I72" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G72" s="16" t="n">
+      <c r="J72" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="H72" s="16" t="n">
+      <c r="K72" s="16" t="n">
         <v>7.3</v>
       </c>
-      <c r="I72" s="3"/>
-      <c r="J72" s="53" t="n">
+      <c r="L72" s="3"/>
+      <c r="M72" s="53" t="n">
         <v>44266</v>
       </c>
-      <c r="K72" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L72" s="16" t="s">
+      <c r="N72" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O72" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M72" s="59" t="s">
-        <v>417</v>
-      </c>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16" t="s">
+      <c r="P72" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="16" t="s">
         <v>333</v>
       </c>
@@ -11554,34 +12420,46 @@
       <c r="D73" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G73, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F73" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G73, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G73" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B73)),0)</f>
+        <v>56</v>
+      </c>
+      <c r="H73" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="I73" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G73" s="16" t="n">
+      <c r="J73" s="16" t="n">
         <v>4.4</v>
       </c>
-      <c r="H73" s="16" t="n">
+      <c r="K73" s="16" t="n">
         <v>3.7</v>
       </c>
-      <c r="I73" s="3"/>
-      <c r="J73" s="22" t="n">
+      <c r="L73" s="3"/>
+      <c r="M73" s="22" t="n">
         <v>44279</v>
       </c>
-      <c r="K73" s="16" t="s">
+      <c r="N73" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="L73" s="16" t="s">
+      <c r="O73" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="M73" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="N73" s="16"/>
-    </row>
-    <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P73" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q73" s="16"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="16" t="s">
         <v>335</v>
       </c>
@@ -11594,33 +12472,45 @@
       <c r="D74" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G74, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F74" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G74, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G74" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B74)),0)</f>
+        <v>57</v>
+      </c>
+      <c r="H74" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="I74" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="G74" s="0" t="n">
+      <c r="J74" s="0" t="n">
         <v>1.9</v>
       </c>
-      <c r="H74" s="0" t="n">
+      <c r="K74" s="0" t="n">
         <v>5.6</v>
       </c>
-      <c r="J74" s="22" t="n">
+      <c r="M74" s="22" t="n">
         <v>44267</v>
       </c>
-      <c r="K74" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L74" s="16" t="s">
+      <c r="N74" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O74" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M74" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="N74" s="16"/>
-    </row>
-    <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P74" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q74" s="16"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="16" t="s">
         <v>335</v>
       </c>
@@ -11633,33 +12523,45 @@
       <c r="D75" s="58" t="n">
         <v>2</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="E75" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G75, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F75" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G75, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G75" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B75)),0)</f>
+        <v>57</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G75" s="0" t="n">
+      <c r="J75" s="0" t="n">
         <v>2.1</v>
       </c>
-      <c r="H75" s="0" t="n">
+      <c r="K75" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="J75" s="53" t="n">
+      <c r="M75" s="53" t="n">
         <v>44267</v>
       </c>
-      <c r="K75" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L75" s="3" t="s">
+      <c r="N75" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O75" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="M75" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="N75" s="16"/>
-    </row>
-    <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P75" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q75" s="16"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="16" t="s">
         <v>335</v>
       </c>
@@ -11672,32 +12574,44 @@
       <c r="D76" s="58" t="n">
         <v>3</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G76, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F76" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G76, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G76" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B76)),0)</f>
+        <v>57</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="I76" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G76" s="0" t="n">
+      <c r="J76" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="H76" s="0" t="n">
+      <c r="K76" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="I76" s="3"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="16" t="s">
+      <c r="L76" s="3"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O76" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P76" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="L76" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="N76" s="16"/>
-    </row>
-    <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q76" s="16"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="16" t="s">
         <v>340</v>
       </c>
@@ -11710,32 +12624,44 @@
       <c r="D77" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G77, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F77" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G77, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G77" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B77)),0)</f>
+        <v>58</v>
+      </c>
+      <c r="H77" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="I77" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G77" s="0" t="n">
+      <c r="J77" s="0" t="n">
         <v>2.6</v>
       </c>
-      <c r="H77" s="0" t="n">
+      <c r="K77" s="0" t="n">
         <v>4.4</v>
       </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="16" t="s">
+      <c r="L77" s="3"/>
+      <c r="M77" s="53"/>
+      <c r="N77" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O77" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P77" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="L77" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="N77" s="16"/>
-    </row>
-    <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q77" s="16"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="16" t="s">
         <v>344</v>
       </c>
@@ -11748,32 +12674,44 @@
       <c r="D78" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G78, 7,,, "Sequenced Patient Database"))</f>
+        <v>Male</v>
+      </c>
+      <c r="F78" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G78, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G78" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B78)),0)</f>
+        <v>59</v>
+      </c>
+      <c r="H78" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="I78" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G78" s="0" t="n">
+      <c r="J78" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="H78" s="0" t="n">
+      <c r="K78" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="16" t="s">
+      <c r="L78" s="3"/>
+      <c r="M78" s="60"/>
+      <c r="N78" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O78" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P78" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="L78" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="N78" s="16"/>
-    </row>
-    <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q78" s="16"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="16" t="s">
         <v>347</v>
       </c>
@@ -11786,36 +12724,48 @@
       <c r="D79" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G79, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F79" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G79, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G79" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B79)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="H79" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="F79" s="16" t="s">
+      <c r="I79" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="G79" s="0" t="n">
+      <c r="J79" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H79" s="0" t="n">
+      <c r="K79" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I79" s="3"/>
-      <c r="J79" s="22" t="n">
+      <c r="L79" s="3"/>
+      <c r="M79" s="22" t="n">
         <v>43411</v>
       </c>
-      <c r="K79" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L79" s="16" t="s">
+      <c r="N79" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O79" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M79" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="N79" s="3" t="s">
+      <c r="P79" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q79" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="16" t="s">
         <v>352</v>
       </c>
@@ -11828,35 +12778,47 @@
       <c r="D80" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G80, 7,,, "Sequenced Patient Database"))</f>
+        <v>Male</v>
+      </c>
+      <c r="F80" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G80, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G80" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B80)),0)</f>
+        <v>61</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F80" s="16" t="s">
+      <c r="I80" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G80" s="0" t="n">
+      <c r="J80" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="H80" s="0" t="n">
+      <c r="K80" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="J80" s="22" t="n">
+      <c r="M80" s="22" t="n">
         <v>43787</v>
       </c>
-      <c r="K80" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L80" s="16" t="s">
+      <c r="N80" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O80" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M80" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="N80" s="3" t="s">
+      <c r="P80" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q80" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="16" t="s">
         <v>355</v>
       </c>
@@ -11869,30 +12831,42 @@
       <c r="D81" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G81, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F81" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G81, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G81" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B81)),0)</f>
+        <v>62</v>
+      </c>
+      <c r="H81" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="I81" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G81" s="0" t="n">
+      <c r="J81" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="H81" s="0" t="n">
+      <c r="K81" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="J81" s="22" t="n">
+      <c r="M81" s="22" t="n">
         <v>44295</v>
       </c>
-      <c r="K81" s="53" t="s">
-        <v>414</v>
-      </c>
-      <c r="L81" s="20"/>
-      <c r="M81" s="3" t="s">
+      <c r="N81" s="53" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O81" s="20"/>
+      <c r="P81" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="16" t="s">
         <v>359</v>
       </c>
@@ -11905,35 +12879,47 @@
       <c r="D82" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G82, 7,,, "Sequenced Patient Database"))</f>
+        <v>Male</v>
+      </c>
+      <c r="F82" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G82, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G82" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B82)),0)</f>
+        <v>63</v>
+      </c>
+      <c r="H82" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="F82" s="16" t="s">
+      <c r="I82" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="G82" s="16" t="n">
+      <c r="J82" s="16" t="n">
         <v>5.8</v>
       </c>
-      <c r="H82" s="16" t="n">
+      <c r="K82" s="16" t="n">
         <v>3.7</v>
       </c>
-      <c r="J82" s="41" t="n">
+      <c r="M82" s="41" t="n">
         <v>43192</v>
       </c>
-      <c r="K82" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L82" s="16" t="s">
+      <c r="N82" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O82" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M82" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="N82" s="16" t="s">
+      <c r="P82" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q82" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="16" t="s">
         <v>363</v>
       </c>
@@ -11946,30 +12932,42 @@
       <c r="D83" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G83, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F83" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G83, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G83" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B83)),0)</f>
+        <v>64</v>
+      </c>
+      <c r="H83" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="I83" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G83" s="0" t="n">
+      <c r="J83" s="0" t="n">
         <v>3.6</v>
       </c>
-      <c r="H83" s="0" t="n">
+      <c r="K83" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="K83" s="16" t="s">
+      <c r="N83" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O83" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P83" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="L83" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M83" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N83" s="16"/>
-    </row>
-    <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q83" s="16"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="16" t="s">
         <v>365</v>
       </c>
@@ -11982,33 +12980,45 @@
       <c r="D84" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G84, 7,,, "Sequenced Patient Database"))</f>
+        <v>Male</v>
+      </c>
+      <c r="F84" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G84, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G84" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B84)),0)</f>
+        <v>65</v>
+      </c>
+      <c r="H84" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="F84" s="16" t="s">
+      <c r="I84" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G84" s="0" t="n">
+      <c r="J84" s="0" t="n">
         <v>3.1</v>
       </c>
-      <c r="H84" s="0" t="n">
+      <c r="K84" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="J84" s="22" t="n">
+      <c r="M84" s="22" t="n">
         <v>44328</v>
       </c>
-      <c r="K84" s="16" t="s">
+      <c r="N84" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="L84" s="16" t="s">
+      <c r="O84" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="M84" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N84" s="16"/>
-    </row>
-    <row r="85" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P84" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q84" s="16"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="16" t="s">
         <v>368</v>
       </c>
@@ -12021,33 +13031,45 @@
       <c r="D85" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G85, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F85" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G85, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G85" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B85)),0)</f>
+        <v>66</v>
+      </c>
+      <c r="H85" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="I85" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G85" s="0" t="n">
+      <c r="J85" s="0" t="n">
         <v>3.6</v>
       </c>
-      <c r="H85" s="0" t="n">
+      <c r="K85" s="0" t="n">
         <v>2.8</v>
       </c>
-      <c r="J85" s="22" t="n">
+      <c r="M85" s="22" t="n">
         <v>44294</v>
       </c>
-      <c r="K85" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L85" s="16" t="s">
+      <c r="N85" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O85" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M85" s="46" t="s">
-        <v>417</v>
-      </c>
-      <c r="N85" s="16"/>
-    </row>
-    <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P85" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q85" s="16"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="16" t="s">
         <v>372</v>
       </c>
@@ -12060,30 +13082,42 @@
       <c r="D86" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G86, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F86" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G86, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G86" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B86)),0)</f>
+        <v>67</v>
+      </c>
+      <c r="H86" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="F86" s="16" t="s">
+      <c r="I86" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G86" s="19" t="n">
+      <c r="J86" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="J86" s="22" t="n">
+      <c r="M86" s="22" t="n">
         <v>44299</v>
       </c>
-      <c r="K86" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L86" s="3" t="s">
+      <c r="N86" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O86" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="M86" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="N86" s="16"/>
-    </row>
-    <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P86" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q86" s="16"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="16" t="s">
         <v>375</v>
       </c>
@@ -12096,31 +13130,43 @@
       <c r="D87" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G87, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F87" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G87, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G87" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B87)),0)</f>
+        <v>68</v>
+      </c>
+      <c r="H87" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="F87" s="16" t="s">
+      <c r="I87" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G87" s="19" t="n">
+      <c r="J87" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="H87" s="0" t="n">
+      <c r="K87" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K87" s="50" t="s">
+      <c r="N87" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="O87" s="16"/>
+      <c r="P87" s="61" t="s">
         <v>416</v>
       </c>
-      <c r="L87" s="16"/>
-      <c r="M87" s="61" t="s">
-        <v>415</v>
-      </c>
-      <c r="N87" s="16"/>
-      <c r="O87" s="0" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q87" s="16"/>
+      <c r="R87" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="16" t="s">
         <v>378</v>
       </c>
@@ -12133,33 +13179,45 @@
       <c r="D88" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G88, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F88" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G88, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G88" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B88)),0)</f>
+        <v>69</v>
+      </c>
+      <c r="H88" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="F88" s="16" t="s">
+      <c r="I88" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="G88" s="19" t="n">
+      <c r="J88" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="H88" s="0" t="n">
+      <c r="K88" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="J88" s="22" t="n">
+      <c r="M88" s="22" t="n">
         <v>40060</v>
       </c>
-      <c r="K88" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L88" s="3" t="s">
+      <c r="N88" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O88" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="M88" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="N88" s="16"/>
-    </row>
-    <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P88" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q88" s="16"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="16" t="s">
         <v>381</v>
       </c>
@@ -12172,37 +13230,49 @@
       <c r="D89" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G89, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F89" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G89, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G89" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B89)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="H89" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="F89" s="16" t="s">
+      <c r="I89" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G89" s="3" t="n">
+      <c r="J89" s="3" t="n">
         <v>10.4</v>
       </c>
-      <c r="H89" s="29" t="n">
+      <c r="K89" s="29" t="n">
         <v>10.4</v>
       </c>
-      <c r="I89" s="18"/>
-      <c r="J89" s="15" t="n">
+      <c r="L89" s="18"/>
+      <c r="M89" s="15" t="n">
         <v>44309</v>
       </c>
-      <c r="K89" s="50" t="s">
+      <c r="N89" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="O89" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P89" s="61" t="s">
         <v>416</v>
       </c>
-      <c r="L89" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M89" s="61" t="s">
-        <v>415</v>
-      </c>
-      <c r="N89" s="16"/>
-      <c r="O89" s="0" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q89" s="16"/>
+      <c r="R89" s="0" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="16" t="s">
         <v>381</v>
       </c>
@@ -12215,32 +13285,44 @@
       <c r="D90" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G90, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F90" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G90, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G90" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B90)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="H90" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="I90" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G90" s="18" t="n">
+      <c r="J90" s="18" t="n">
         <v>6.2</v>
       </c>
-      <c r="H90" s="18" t="n">
+      <c r="K90" s="18" t="n">
         <v>4.7</v>
       </c>
-      <c r="I90" s="18"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="16" t="s">
+      <c r="L90" s="18"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O90" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P90" s="61" t="s">
         <v>416</v>
       </c>
-      <c r="L90" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M90" s="61" t="s">
-        <v>415</v>
-      </c>
-      <c r="N90" s="16"/>
-    </row>
-    <row r="91" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q90" s="16"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="16" t="s">
         <v>385</v>
       </c>
@@ -12253,33 +13335,45 @@
       <c r="D91" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E91" s="20" t="s">
+      <c r="E91" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G91, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F91" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G91, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G91" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B91)),0)</f>
+        <v>71</v>
+      </c>
+      <c r="H91" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="F91" s="16" t="s">
+      <c r="I91" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G91" s="19" t="n">
+      <c r="J91" s="19" t="n">
         <v>3.7</v>
       </c>
-      <c r="H91" s="0" t="n">
+      <c r="K91" s="0" t="n">
         <v>2.9</v>
       </c>
-      <c r="J91" s="22" t="n">
+      <c r="M91" s="22" t="n">
         <v>44313</v>
       </c>
-      <c r="K91" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L91" s="3" t="s">
+      <c r="N91" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O91" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M91" s="61" t="s">
-        <v>415</v>
-      </c>
-      <c r="N91" s="16"/>
-    </row>
-    <row r="92" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P91" s="61" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q91" s="16"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="16" t="s">
         <v>389</v>
       </c>
@@ -12292,33 +13386,45 @@
       <c r="D92" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G92, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F92" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G92, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G92" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B92)),0)</f>
+        <v>72</v>
+      </c>
+      <c r="H92" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="F92" s="16" t="s">
+      <c r="I92" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="G92" s="19" t="n">
+      <c r="J92" s="19" t="n">
         <v>5.3</v>
       </c>
-      <c r="H92" s="0" t="n">
+      <c r="K92" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="J92" s="22" t="n">
+      <c r="M92" s="22" t="n">
         <v>43959</v>
       </c>
-      <c r="K92" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L92" s="3" t="s">
+      <c r="N92" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O92" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M92" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="N92" s="16"/>
-    </row>
-    <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P92" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q92" s="16"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="16" t="s">
         <v>393</v>
       </c>
@@ -12331,32 +13437,44 @@
       <c r="D93" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E93" s="20" t="s">
+      <c r="E93" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G93, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F93" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G93, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G93" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B93)),0)</f>
+        <v>73</v>
+      </c>
+      <c r="H93" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="F93" s="16" t="s">
+      <c r="I93" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G93" s="19" t="n">
+      <c r="J93" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="H93" s="0" t="n">
+      <c r="K93" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J93" s="22" t="n">
+      <c r="M93" s="22" t="n">
         <v>43970</v>
       </c>
-      <c r="K93" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L93" s="3" t="s">
+      <c r="N93" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O93" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M93" s="61" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P93" s="61" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="16" t="s">
         <v>397</v>
       </c>
@@ -12369,33 +13487,45 @@
       <c r="D94" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G94, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F94" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G94, 10,,, "Sequenced Patient Database"))</f>
+        <v>Smoker</v>
+      </c>
+      <c r="G94" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B94)),0)</f>
+        <v>74</v>
+      </c>
+      <c r="H94" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="F94" s="16" t="s">
+      <c r="I94" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="G94" s="19" t="n">
+      <c r="J94" s="19" t="n">
         <v>5.6</v>
       </c>
-      <c r="H94" s="0" t="n">
+      <c r="K94" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="J94" s="22" t="n">
+      <c r="M94" s="22" t="n">
         <v>40745</v>
       </c>
-      <c r="K94" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="L94" s="16" t="s">
+      <c r="N94" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="O94" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="M94" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="N94" s="16"/>
-    </row>
-    <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P94" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q94" s="16"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="16" t="s">
         <v>399</v>
       </c>
@@ -12408,33 +13538,45 @@
       <c r="D95" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G95, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F95" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G95, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G95" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B95)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="H95" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="F95" s="16" t="s">
+      <c r="I95" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G95" s="19" t="n">
+      <c r="J95" s="19" t="n">
         <v>6.2</v>
       </c>
-      <c r="H95" s="0" t="n">
+      <c r="K95" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="J95" s="22" t="n">
+      <c r="M95" s="22" t="n">
         <v>44320</v>
       </c>
-      <c r="K95" s="16" t="s">
+      <c r="N95" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="L95" s="16" t="s">
+      <c r="O95" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="M95" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="N95" s="16"/>
-    </row>
-    <row r="96" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P95" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q95" s="16"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="16" t="s">
         <v>399</v>
       </c>
@@ -12447,30 +13589,42 @@
       <c r="D96" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G96, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F96" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G96, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G96" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B96)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="H96" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="I96" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G96" s="0" t="n">
+      <c r="J96" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H96" s="0" t="n">
+      <c r="K96" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="K96" s="16" t="s">
+      <c r="N96" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O96" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P96" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="L96" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M96" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N96" s="16"/>
-    </row>
-    <row r="97" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q96" s="16"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="16" t="s">
         <v>399</v>
       </c>
@@ -12483,40 +13637,55 @@
       <c r="D97" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="28" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G97, 7,,, "Sequenced Patient Database"))</f>
+        <v>Female</v>
+      </c>
+      <c r="F97" s="18" t="str">
+        <f aca="true">INDIRECT(ADDRESS(G97, 10,,, "Sequenced Patient Database"))</f>
+        <v>Non-smoker</v>
+      </c>
+      <c r="G97" s="18" t="n">
+        <f aca="false">MATCH(1,ISNUMBER(SEARCH('Sequenced Patient Database'!A$1:A$1000, B97)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="I97" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G97" s="0" t="n">
+      <c r="J97" s="0" t="n">
         <v>1.8</v>
       </c>
-      <c r="H97" s="0" t="n">
+      <c r="K97" s="0" t="n">
         <v>2.1</v>
       </c>
-      <c r="K97" s="16" t="s">
+      <c r="N97" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="O97" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="P97" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="L97" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="M97" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N97" s="16"/>
-    </row>
-    <row r="98" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q97" s="16"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C98" s="49"/>
       <c r="D98" s="12"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="46"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="32"/>
       <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
+      <c r="P98" s="46"/>
+      <c r="Q98" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12540,7 +13709,7 @@
       <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.83"/>
@@ -12548,12 +13717,12 @@
   <sheetData>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="62" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="63" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C3" s="63"/>
       <c r="D3" s="63"/>
@@ -12576,10 +13745,10 @@
     </row>
     <row r="6" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="68" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D6" s="65" t="e">
         <f aca="false">COUNTIF('sequenced patient database'!#ref!,"0")</f>
@@ -12591,7 +13760,7 @@
     <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="64"/>
       <c r="C7" s="65" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D7" s="65" t="e">
         <f aca="false">COUNTIF('sequenced patient database'!#ref!,"1")</f>
@@ -12603,7 +13772,7 @@
     <row r="8" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="71"/>
       <c r="C8" s="72" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D8" s="72" t="e">
         <f aca="false">D6+D7</f>
@@ -12647,10 +13816,10 @@
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="77" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D13" s="74" t="n">
         <f aca="false">SUM('Sequenced Patient Database'!AH2:AH16)</f>
@@ -12662,7 +13831,7 @@
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="77"/>
       <c r="C14" s="74" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D14" s="74"/>
       <c r="E14" s="74"/>
@@ -12684,10 +13853,10 @@
     </row>
     <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="77" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D17" s="74" t="e">
         <f aca="false">COUNTIF(#REF!, "0")</f>
@@ -12699,7 +13868,7 @@
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="64"/>
       <c r="C18" s="65" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D18" s="74" t="e">
         <f aca="false">COUNTIF(#REF!, "1")</f>
@@ -12717,12 +13886,12 @@
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="62" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="63" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C23" s="63"/>
       <c r="D23" s="63"/>
@@ -12745,7 +13914,7 @@
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="83" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
@@ -12865,7 +14034,7 @@
     <row r="37" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="71"/>
       <c r="C37" s="85" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D37" s="85" t="e">
         <f aca="false">SUM(D28:D35)</f>
@@ -12883,7 +14052,7 @@
     </row>
     <row r="39" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="86" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C39" s="74"/>
       <c r="D39" s="74"/>
@@ -12893,7 +14062,7 @@
     <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="87"/>
       <c r="C40" s="88" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D40" s="65" t="e">
         <f aca="false">COUNTIF(#REF!,"Endovascular")</f>
@@ -12917,7 +14086,7 @@
     <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="87"/>
       <c r="C42" s="88" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D42" s="65" t="e">
         <f aca="false">COUNTIF(#REF!,"Pipeline")</f>
@@ -12943,7 +14112,7 @@
     <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="64"/>
       <c r="C45" s="88" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D45" s="65" t="e">
         <f aca="false">COUNTIF(#REF!,"Surgical")</f>
@@ -12962,7 +14131,7 @@
     <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="64"/>
       <c r="C47" s="65" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D47" s="65" t="e">
         <f aca="false">COUNTIF(#REF!,"Untreated")</f>
@@ -12981,7 +14150,7 @@
     <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="89"/>
       <c r="C49" s="85" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D49" s="85" t="e">
         <f aca="false">D40+D45+D47</f>
@@ -12999,7 +14168,7 @@
     </row>
     <row r="51" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="95" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C51" s="96"/>
       <c r="D51" s="96"/>
@@ -13026,7 +14195,7 @@
     <row r="54" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="97"/>
       <c r="C54" s="66" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D54" s="65" t="e">
         <f aca="false">COUNTIF(#REF!,"Unruptured")</f>
@@ -13040,7 +14209,7 @@
     <row r="55" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="97"/>
       <c r="C55" s="66" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D55" s="65" t="e">
         <f aca="false">COUNTIF(#REF!,"Ruptured")</f>
@@ -13091,7 +14260,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.33"/>
@@ -13154,7 +14323,7 @@
       <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="27.85"/>

--- a/Deidentified Aneurysm Genetics Study Database_20200601.xlsx
+++ b/Deidentified Aneurysm Genetics Study Database_20200601.xlsx
@@ -2242,7 +2242,7 @@
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.5"/>
@@ -2636,11 +2636,11 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.65"/>
@@ -8669,17 +8669,17 @@
   </sheetPr>
   <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="19.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="19.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.65"/>
@@ -13709,7 +13709,7 @@
       <selection pane="topLeft" activeCell="I33" activeCellId="0" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.83"/>
@@ -14260,7 +14260,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.33"/>
@@ -14323,7 +14323,7 @@
       <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="27.85"/>
